--- a/Team-Data/2011-12/3-22-2011-12.xlsx
+++ b/Team-Data/2011-12/3-22-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,13 +811,13 @@
         <v>1.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
         <v>7</v>
       </c>
       <c r="AF2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG2" t="n">
         <v>8</v>
@@ -801,7 +868,7 @@
         <v>8</v>
       </c>
       <c r="AW2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX2" t="n">
         <v>19</v>
@@ -813,10 +880,10 @@
         <v>5</v>
       </c>
       <c r="BA2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC2" t="n">
         <v>12</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-22-2011-12</t>
+          <t>2012-03-22</t>
         </is>
       </c>
     </row>
@@ -848,25 +915,25 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" t="n">
         <v>21</v>
       </c>
       <c r="G3" t="n">
-        <v>0.543</v>
+        <v>0.533</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="J3" t="n">
-        <v>77.2</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K3" t="n">
         <v>0.455</v>
@@ -878,61 +945,61 @@
         <v>15.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0.365</v>
+        <v>0.364</v>
       </c>
       <c r="O3" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="P3" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.775</v>
+        <v>0.776</v>
       </c>
       <c r="R3" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="S3" t="n">
-        <v>30.2</v>
+        <v>29.9</v>
       </c>
       <c r="T3" t="n">
-        <v>38.3</v>
+        <v>38.1</v>
       </c>
       <c r="U3" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="V3" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W3" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="X3" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.3</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG3" t="n">
         <v>14</v>
@@ -947,10 +1014,10 @@
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM3" t="n">
         <v>23</v>
@@ -959,19 +1026,19 @@
         <v>8</v>
       </c>
       <c r="AO3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AP3" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AT3" t="n">
         <v>30</v>
@@ -983,19 +1050,19 @@
         <v>18</v>
       </c>
       <c r="AW3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AX3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ3" t="n">
         <v>22</v>
       </c>
       <c r="BA3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BB3" t="n">
         <v>26</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-22-2011-12</t>
+          <t>2012-03-22</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-13.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1171,7 +1238,7 @@
         <v>3</v>
       </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ4" t="n">
         <v>9</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-22-2011-12</t>
+          <t>2012-03-22</t>
         </is>
       </c>
     </row>
@@ -1323,7 +1390,7 @@
         <v>5</v>
       </c>
       <c r="AO5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP5" t="n">
         <v>20</v>
@@ -1332,7 +1399,7 @@
         <v>24</v>
       </c>
       <c r="AR5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS5" t="n">
         <v>5</v>
@@ -1344,13 +1411,13 @@
         <v>4</v>
       </c>
       <c r="AV5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW5" t="n">
         <v>23</v>
       </c>
       <c r="AX5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY5" t="n">
         <v>16</v>
@@ -1362,7 +1429,7 @@
         <v>28</v>
       </c>
       <c r="BB5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC5" t="n">
         <v>1</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-22-2011-12</t>
+          <t>2012-03-22</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-4</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE6" t="n">
         <v>23</v>
@@ -1487,25 +1554,25 @@
         <v>13</v>
       </c>
       <c r="AI6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK6" t="n">
         <v>27</v>
       </c>
       <c r="AL6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN6" t="n">
         <v>11</v>
       </c>
       <c r="AO6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP6" t="n">
         <v>4</v>
@@ -1517,7 +1584,7 @@
         <v>3</v>
       </c>
       <c r="AS6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT6" t="n">
         <v>11</v>
@@ -1535,7 +1602,7 @@
         <v>24</v>
       </c>
       <c r="AY6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
         <v>23</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-22-2011-12</t>
+          <t>2012-03-22</t>
         </is>
       </c>
     </row>
@@ -1660,10 +1727,10 @@
         <v>7</v>
       </c>
       <c r="AF7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
         <v>20</v>
@@ -1687,7 +1754,7 @@
         <v>20</v>
       </c>
       <c r="AO7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP7" t="n">
         <v>23</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-22-2011-12</t>
+          <t>2012-03-22</t>
         </is>
       </c>
     </row>
@@ -1836,16 +1903,16 @@
         <v>2</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH8" t="n">
         <v>1</v>
@@ -1854,19 +1921,19 @@
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK8" t="n">
         <v>3</v>
       </c>
       <c r="AL8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO8" t="n">
         <v>2</v>
@@ -1896,13 +1963,13 @@
         <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY8" t="n">
         <v>30</v>
       </c>
       <c r="AZ8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-22-2011-12</t>
+          <t>2012-03-22</t>
         </is>
       </c>
     </row>
@@ -2018,19 +2085,19 @@
         <v>-5.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
         <v>25</v>
       </c>
       <c r="AF9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG9" t="n">
         <v>25</v>
       </c>
       <c r="AH9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI9" t="n">
         <v>26</v>
@@ -2048,7 +2115,7 @@
         <v>27</v>
       </c>
       <c r="AN9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO9" t="n">
         <v>13</v>
@@ -2057,16 +2124,16 @@
         <v>14</v>
       </c>
       <c r="AQ9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR9" t="n">
         <v>12</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>11</v>
       </c>
       <c r="AS9" t="n">
         <v>30</v>
       </c>
       <c r="AT9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU9" t="n">
         <v>26</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-22-2011-12</t>
+          <t>2012-03-22</t>
         </is>
       </c>
     </row>
@@ -2122,64 +2189,64 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" t="n">
         <v>19</v>
       </c>
       <c r="F10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" t="n">
-        <v>0.422</v>
+        <v>0.432</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J10" t="n">
         <v>81.7</v>
       </c>
       <c r="K10" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L10" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="M10" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="N10" t="n">
         <v>0.388</v>
       </c>
       <c r="O10" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="P10" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.766</v>
+        <v>0.765</v>
       </c>
       <c r="R10" t="n">
         <v>9.9</v>
       </c>
       <c r="S10" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="T10" t="n">
-        <v>39.6</v>
+        <v>39.8</v>
       </c>
       <c r="U10" t="n">
         <v>22</v>
       </c>
       <c r="V10" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W10" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X10" t="n">
         <v>5.5</v>
@@ -2194,34 +2261,34 @@
         <v>17.4</v>
       </c>
       <c r="AB10" t="n">
-        <v>97.8</v>
+        <v>98.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
       </c>
       <c r="AF10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG10" t="n">
         <v>22</v>
       </c>
       <c r="AH10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI10" t="n">
         <v>8</v>
       </c>
       <c r="AJ10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL10" t="n">
         <v>4</v>
@@ -2233,22 +2300,22 @@
         <v>2</v>
       </c>
       <c r="AO10" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AP10" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AQ10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR10" t="n">
         <v>29</v>
       </c>
       <c r="AS10" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AT10" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AU10" t="n">
         <v>7</v>
@@ -2257,7 +2324,7 @@
         <v>4</v>
       </c>
       <c r="AW10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX10" t="n">
         <v>8</v>
@@ -2272,7 +2339,7 @@
         <v>29</v>
       </c>
       <c r="BB10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC10" t="n">
         <v>22</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-22-2011-12</t>
+          <t>2012-03-22</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" t="n">
         <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>0.542</v>
+        <v>0.532</v>
       </c>
       <c r="H11" t="n">
         <v>48.5</v>
@@ -2322,10 +2389,10 @@
         <v>37.6</v>
       </c>
       <c r="J11" t="n">
-        <v>82.90000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="K11" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L11" t="n">
         <v>7</v>
@@ -2337,22 +2404,22 @@
         <v>0.36</v>
       </c>
       <c r="O11" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="P11" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.786</v>
+        <v>0.784</v>
       </c>
       <c r="R11" t="n">
         <v>11.5</v>
       </c>
       <c r="S11" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T11" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U11" t="n">
         <v>20.9</v>
@@ -2367,25 +2434,25 @@
         <v>4.7</v>
       </c>
       <c r="Y11" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AA11" t="n">
         <v>18.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.09999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
         <v>15</v>
@@ -2397,7 +2464,7 @@
         <v>7</v>
       </c>
       <c r="AI11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ11" t="n">
         <v>6</v>
@@ -2409,16 +2476,16 @@
         <v>10</v>
       </c>
       <c r="AM11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO11" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP11" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AQ11" t="n">
         <v>4</v>
@@ -2430,7 +2497,7 @@
         <v>17</v>
       </c>
       <c r="AT11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU11" t="n">
         <v>15</v>
@@ -2442,22 +2509,22 @@
         <v>18</v>
       </c>
       <c r="AX11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY11" t="n">
         <v>15</v>
       </c>
       <c r="AZ11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BA11" t="n">
         <v>25</v>
       </c>
       <c r="BB11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-22-2011-12</t>
+          <t>2012-03-22</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" t="n">
         <v>18</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6</v>
+        <v>0.591</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
@@ -2504,7 +2571,7 @@
         <v>34.8</v>
       </c>
       <c r="J12" t="n">
-        <v>80.5</v>
+        <v>80.7</v>
       </c>
       <c r="K12" t="n">
         <v>0.432</v>
@@ -2513,10 +2580,10 @@
         <v>5.6</v>
       </c>
       <c r="M12" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="N12" t="n">
-        <v>0.359</v>
+        <v>0.363</v>
       </c>
       <c r="O12" t="n">
         <v>20.2</v>
@@ -2525,16 +2592,16 @@
         <v>26</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.774</v>
+        <v>0.776</v>
       </c>
       <c r="R12" t="n">
         <v>12.3</v>
       </c>
       <c r="S12" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T12" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U12" t="n">
         <v>18</v>
@@ -2543,13 +2610,13 @@
         <v>14.3</v>
       </c>
       <c r="W12" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X12" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y12" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z12" t="n">
         <v>21.7</v>
@@ -2558,16 +2625,16 @@
         <v>21.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>95.3</v>
+        <v>95.5</v>
       </c>
       <c r="AC12" t="n">
         <v>2.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF12" t="n">
         <v>5</v>
@@ -2576,7 +2643,7 @@
         <v>7</v>
       </c>
       <c r="AH12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI12" t="n">
         <v>25</v>
@@ -2588,13 +2655,13 @@
         <v>26</v>
       </c>
       <c r="AL12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM12" t="n">
         <v>22</v>
       </c>
       <c r="AN12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO12" t="n">
         <v>3</v>
@@ -2603,7 +2670,7 @@
         <v>3</v>
       </c>
       <c r="AQ12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AR12" t="n">
         <v>8</v>
@@ -2612,7 +2679,7 @@
         <v>12</v>
       </c>
       <c r="AT12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AU12" t="n">
         <v>30</v>
@@ -2621,7 +2688,7 @@
         <v>9</v>
       </c>
       <c r="AW12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX12" t="n">
         <v>11</v>
@@ -2636,7 +2703,7 @@
         <v>6</v>
       </c>
       <c r="BB12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC12" t="n">
         <v>6</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-22-2011-12</t>
+          <t>2012-03-22</t>
         </is>
       </c>
     </row>
@@ -2668,37 +2735,37 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" t="n">
         <v>26</v>
       </c>
       <c r="F13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" t="n">
-        <v>0.553</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J13" t="n">
-        <v>81.7</v>
+        <v>81.5</v>
       </c>
       <c r="K13" t="n">
-        <v>0.446</v>
+        <v>0.447</v>
       </c>
       <c r="L13" t="n">
         <v>7.6</v>
       </c>
       <c r="M13" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="N13" t="n">
-        <v>0.349</v>
+        <v>0.354</v>
       </c>
       <c r="O13" t="n">
         <v>16.4</v>
@@ -2707,19 +2774,19 @@
         <v>23.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="R13" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="S13" t="n">
-        <v>29.9</v>
+        <v>30.1</v>
       </c>
       <c r="T13" t="n">
         <v>42.4</v>
       </c>
       <c r="U13" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V13" t="n">
         <v>13.4</v>
@@ -2728,43 +2795,43 @@
         <v>8.1</v>
       </c>
       <c r="X13" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y13" t="n">
         <v>4.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>96.8</v>
+        <v>97</v>
       </c>
       <c r="AC13" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AE13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG13" t="n">
         <v>10</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>11</v>
       </c>
       <c r="AH13" t="n">
         <v>5</v>
       </c>
       <c r="AI13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AK13" t="n">
         <v>14</v>
@@ -2791,37 +2858,37 @@
         <v>7</v>
       </c>
       <c r="AS13" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AT13" t="n">
         <v>13</v>
       </c>
       <c r="AU13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW13" t="n">
         <v>13</v>
       </c>
       <c r="AX13" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AY13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA13" t="n">
         <v>5</v>
       </c>
       <c r="BB13" t="n">
+        <v>13</v>
+      </c>
+      <c r="BC13" t="n">
         <v>14</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>15</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-22-2011-12</t>
+          <t>2012-03-22</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>2.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
@@ -2982,7 +3049,7 @@
         <v>11</v>
       </c>
       <c r="AV14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW14" t="n">
         <v>30</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-22-2011-12</t>
+          <t>2012-03-22</t>
         </is>
       </c>
     </row>
@@ -3032,25 +3099,25 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" t="n">
         <v>25</v>
       </c>
       <c r="F15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15" t="n">
-        <v>0.556</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I15" t="n">
         <v>37</v>
       </c>
       <c r="J15" t="n">
-        <v>82.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K15" t="n">
         <v>0.449</v>
@@ -3059,10 +3126,10 @@
         <v>3.8</v>
       </c>
       <c r="M15" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="N15" t="n">
-        <v>0.32</v>
+        <v>0.319</v>
       </c>
       <c r="O15" t="n">
         <v>17.6</v>
@@ -3071,28 +3138,28 @@
         <v>23.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.75</v>
+        <v>0.752</v>
       </c>
       <c r="R15" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S15" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T15" t="n">
         <v>41.9</v>
       </c>
       <c r="U15" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V15" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W15" t="n">
         <v>10.1</v>
       </c>
       <c r="X15" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y15" t="n">
         <v>5.8</v>
@@ -3107,22 +3174,22 @@
         <v>95.40000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF15" t="n">
         <v>8</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI15" t="n">
         <v>11</v>
@@ -3140,7 +3207,7 @@
         <v>30</v>
       </c>
       <c r="AN15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO15" t="n">
         <v>11</v>
@@ -3155,10 +3222,10 @@
         <v>9</v>
       </c>
       <c r="AS15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU15" t="n">
         <v>23</v>
@@ -3170,7 +3237,7 @@
         <v>1</v>
       </c>
       <c r="AX15" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY15" t="n">
         <v>23</v>
@@ -3182,7 +3249,7 @@
         <v>14</v>
       </c>
       <c r="BB15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC15" t="n">
         <v>13</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-22-2011-12</t>
+          <t>2012-03-22</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>8.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3331,7 +3398,7 @@
         <v>7</v>
       </c>
       <c r="AQ16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR16" t="n">
         <v>26</v>
@@ -3355,7 +3422,7 @@
         <v>10</v>
       </c>
       <c r="AY16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ16" t="n">
         <v>19</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-22-2011-12</t>
+          <t>2012-03-22</t>
         </is>
       </c>
     </row>
@@ -3396,37 +3463,37 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" t="n">
         <v>21</v>
       </c>
       <c r="F17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17" t="n">
-        <v>0.457</v>
+        <v>0.467</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
       </c>
       <c r="I17" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="J17" t="n">
-        <v>85.5</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.434</v>
+        <v>0.435</v>
       </c>
       <c r="L17" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M17" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.341</v>
+        <v>0.344</v>
       </c>
       <c r="O17" t="n">
         <v>16.7</v>
@@ -3441,10 +3508,10 @@
         <v>12.8</v>
       </c>
       <c r="S17" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="T17" t="n">
-        <v>41.8</v>
+        <v>41.6</v>
       </c>
       <c r="U17" t="n">
         <v>23</v>
@@ -3453,37 +3520,37 @@
         <v>14.1</v>
       </c>
       <c r="W17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X17" t="n">
         <v>4.9</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="AA17" t="n">
         <v>19.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>97.8</v>
+        <v>98</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="AD17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE17" t="n">
         <v>20</v>
       </c>
-      <c r="AE17" t="n">
-        <v>21</v>
-      </c>
       <c r="AF17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH17" t="n">
         <v>26</v>
@@ -3498,13 +3565,13 @@
         <v>25</v>
       </c>
       <c r="AL17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AM17" t="n">
         <v>12</v>
       </c>
       <c r="AN17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO17" t="n">
         <v>15</v>
@@ -3522,7 +3589,7 @@
         <v>28</v>
       </c>
       <c r="AT17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AU17" t="n">
         <v>3</v>
@@ -3531,25 +3598,25 @@
         <v>7</v>
       </c>
       <c r="AW17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX17" t="n">
         <v>18</v>
       </c>
       <c r="AY17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ17" t="n">
         <v>14</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>12</v>
       </c>
       <c r="BA17" t="n">
         <v>19</v>
       </c>
       <c r="BB17" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BC17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-22-2011-12</t>
+          <t>2012-03-22</t>
         </is>
       </c>
     </row>
@@ -3662,7 +3729,7 @@
         <v>17</v>
       </c>
       <c r="AF18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG18" t="n">
         <v>19</v>
@@ -3680,7 +3747,7 @@
         <v>24</v>
       </c>
       <c r="AL18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM18" t="n">
         <v>8</v>
@@ -3713,7 +3780,7 @@
         <v>26</v>
       </c>
       <c r="AW18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX18" t="n">
         <v>29</v>
@@ -3731,7 +3798,7 @@
         <v>5</v>
       </c>
       <c r="BC18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-22-2011-12</t>
+          <t>2012-03-22</t>
         </is>
       </c>
     </row>
@@ -3880,13 +3947,13 @@
         <v>8</v>
       </c>
       <c r="AR19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS19" t="n">
         <v>29</v>
       </c>
       <c r="AT19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU19" t="n">
         <v>24</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-22-2011-12</t>
+          <t>2012-03-22</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" t="n">
         <v>35</v>
       </c>
       <c r="G20" t="n">
-        <v>0.255</v>
+        <v>0.239</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3960,34 +4027,34 @@
         <v>34.9</v>
       </c>
       <c r="J20" t="n">
-        <v>78.5</v>
+        <v>79</v>
       </c>
       <c r="K20" t="n">
-        <v>0.445</v>
+        <v>0.442</v>
       </c>
       <c r="L20" t="n">
         <v>3.9</v>
       </c>
       <c r="M20" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.325</v>
+        <v>0.324</v>
       </c>
       <c r="O20" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="P20" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.759</v>
+        <v>0.757</v>
       </c>
       <c r="R20" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S20" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T20" t="n">
         <v>41.3</v>
@@ -3996,76 +4063,76 @@
         <v>20.9</v>
       </c>
       <c r="V20" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W20" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X20" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z20" t="n">
         <v>20.2</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.4</v>
+        <v>18.2</v>
       </c>
       <c r="AB20" t="n">
-        <v>89</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>-4.8</v>
+        <v>-5.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
       </c>
       <c r="AF20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ20" t="n">
         <v>26</v>
       </c>
       <c r="AK20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL20" t="n">
         <v>28</v>
       </c>
       <c r="AM20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP20" t="n">
         <v>29</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS20" t="n">
         <v>22</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>27</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>27</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>21</v>
       </c>
       <c r="AT20" t="n">
         <v>23</v>
@@ -4074,19 +4141,19 @@
         <v>16</v>
       </c>
       <c r="AV20" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX20" t="n">
         <v>21</v>
       </c>
-      <c r="AX20" t="n">
-        <v>19</v>
-      </c>
       <c r="AY20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ20" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-22-2011-12</t>
+          <t>2012-03-22</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>2.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE21" t="n">
         <v>17</v>
@@ -4214,7 +4281,7 @@
         <v>17</v>
       </c>
       <c r="AH21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
         <v>21</v>
@@ -4232,7 +4299,7 @@
         <v>4</v>
       </c>
       <c r="AN21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO21" t="n">
         <v>6</v>
@@ -4241,10 +4308,10 @@
         <v>5</v>
       </c>
       <c r="AQ21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS21" t="n">
         <v>15</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-22-2011-12</t>
+          <t>2012-03-22</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>6.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,7 +4463,7 @@
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI22" t="n">
         <v>12</v>
@@ -4411,7 +4478,7 @@
         <v>8</v>
       </c>
       <c r="AM22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN22" t="n">
         <v>12</v>
@@ -4432,10 +4499,10 @@
         <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
@@ -4450,7 +4517,7 @@
         <v>8</v>
       </c>
       <c r="AZ22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA22" t="n">
         <v>12</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-22-2011-12</t>
+          <t>2012-03-22</t>
         </is>
       </c>
     </row>
@@ -4599,7 +4666,7 @@
         <v>4</v>
       </c>
       <c r="AO23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP23" t="n">
         <v>9</v>
@@ -4608,7 +4675,7 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-22-2011-12</t>
+          <t>2012-03-22</t>
         </is>
       </c>
     </row>
@@ -4748,22 +4815,22 @@
         <v>6.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ24" t="n">
         <v>3</v>
@@ -4805,13 +4872,13 @@
         <v>1</v>
       </c>
       <c r="AW24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX24" t="n">
         <v>16</v>
       </c>
       <c r="AY24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ24" t="n">
         <v>6</v>
@@ -4820,7 +4887,7 @@
         <v>30</v>
       </c>
       <c r="BB24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC24" t="n">
         <v>3</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-22-2011-12</t>
+          <t>2012-03-22</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-1</v>
       </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
         <v>17</v>
@@ -4948,7 +5015,7 @@
         <v>10</v>
       </c>
       <c r="AJ25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK25" t="n">
         <v>10</v>
@@ -4963,13 +5030,13 @@
         <v>15</v>
       </c>
       <c r="AO25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP25" t="n">
         <v>24</v>
       </c>
       <c r="AQ25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR25" t="n">
         <v>21</v>
@@ -4990,7 +5057,7 @@
         <v>26</v>
       </c>
       <c r="AX25" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY25" t="n">
         <v>5</v>
@@ -4999,7 +5066,7 @@
         <v>7</v>
       </c>
       <c r="BA25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB25" t="n">
         <v>15</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-22-2011-12</t>
+          <t>2012-03-22</t>
         </is>
       </c>
     </row>
@@ -5034,61 +5101,61 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F26" t="n">
         <v>25</v>
       </c>
       <c r="G26" t="n">
-        <v>0.468</v>
+        <v>0.457</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J26" t="n">
-        <v>81.7</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L26" t="n">
         <v>6.7</v>
       </c>
       <c r="M26" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="N26" t="n">
-        <v>0.334</v>
+        <v>0.333</v>
       </c>
       <c r="O26" t="n">
-        <v>17.6</v>
+        <v>17.4</v>
       </c>
       <c r="P26" t="n">
         <v>22.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.794</v>
+        <v>0.789</v>
       </c>
       <c r="R26" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S26" t="n">
         <v>30.3</v>
       </c>
       <c r="T26" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U26" t="n">
         <v>20.6</v>
       </c>
       <c r="V26" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W26" t="n">
         <v>8.300000000000001</v>
@@ -5097,7 +5164,7 @@
         <v>5.1</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z26" t="n">
         <v>19.9</v>
@@ -5109,19 +5176,19 @@
         <v>96.90000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
         <v>20</v>
       </c>
       <c r="AF26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH26" t="n">
         <v>10</v>
@@ -5130,13 +5197,13 @@
         <v>16</v>
       </c>
       <c r="AJ26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM26" t="n">
         <v>13</v>
@@ -5154,7 +5221,7 @@
         <v>3</v>
       </c>
       <c r="AR26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS26" t="n">
         <v>18</v>
@@ -5163,31 +5230,31 @@
         <v>22</v>
       </c>
       <c r="AU26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV26" t="n">
         <v>13</v>
       </c>
       <c r="AW26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY26" t="n">
         <v>11</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>9</v>
       </c>
       <c r="AZ26" t="n">
         <v>16</v>
       </c>
       <c r="BA26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-22-2011-12</t>
+          <t>2012-03-22</t>
         </is>
       </c>
     </row>
@@ -5216,85 +5283,85 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E27" t="n">
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G27" t="n">
-        <v>0.362</v>
+        <v>0.37</v>
       </c>
       <c r="H27" t="n">
         <v>48.2</v>
       </c>
       <c r="I27" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J27" t="n">
-        <v>86.09999999999999</v>
+        <v>85.7</v>
       </c>
       <c r="K27" t="n">
-        <v>0.426</v>
+        <v>0.427</v>
       </c>
       <c r="L27" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M27" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="N27" t="n">
-        <v>0.32</v>
+        <v>0.321</v>
       </c>
       <c r="O27" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="P27" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.749</v>
+        <v>0.753</v>
       </c>
       <c r="R27" t="n">
-        <v>13.7</v>
+        <v>13.4</v>
       </c>
       <c r="S27" t="n">
         <v>29.7</v>
       </c>
       <c r="T27" t="n">
-        <v>43.4</v>
+        <v>43.1</v>
       </c>
       <c r="U27" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="V27" t="n">
         <v>14.7</v>
       </c>
       <c r="W27" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X27" t="n">
         <v>4.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="Z27" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>-5.6</v>
+        <v>-5.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AE27" t="n">
         <v>23</v>
@@ -5321,7 +5388,7 @@
         <v>17</v>
       </c>
       <c r="AM27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN27" t="n">
         <v>25</v>
@@ -5333,16 +5400,16 @@
         <v>12</v>
       </c>
       <c r="AQ27" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AR27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS27" t="n">
         <v>26</v>
       </c>
       <c r="AT27" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AU27" t="n">
         <v>27</v>
@@ -5351,22 +5418,22 @@
         <v>14</v>
       </c>
       <c r="AW27" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AX27" t="n">
         <v>23</v>
       </c>
       <c r="AY27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA27" t="n">
         <v>13</v>
       </c>
       <c r="BB27" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BC27" t="n">
         <v>27</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-22-2011-12</t>
+          <t>2012-03-22</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>4.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE28" t="n">
         <v>4</v>
@@ -5509,7 +5576,7 @@
         <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP28" t="n">
         <v>18</v>
@@ -5530,7 +5597,7 @@
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW28" t="n">
         <v>25</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-22-2011-12</t>
+          <t>2012-03-22</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-4.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
         <v>26</v>
@@ -5670,7 +5737,7 @@
         <v>26</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI29" t="n">
         <v>27</v>
@@ -5712,7 +5779,7 @@
         <v>13</v>
       </c>
       <c r="AV29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW29" t="n">
         <v>24</v>
@@ -5721,13 +5788,13 @@
         <v>16</v>
       </c>
       <c r="AY29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB29" t="n">
         <v>28</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-22-2011-12</t>
+          <t>2012-03-22</t>
         </is>
       </c>
     </row>
@@ -5762,25 +5829,25 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F30" t="n">
         <v>22</v>
       </c>
       <c r="G30" t="n">
-        <v>0.532</v>
+        <v>0.522</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
       </c>
       <c r="I30" t="n">
-        <v>38</v>
+        <v>37.8</v>
       </c>
       <c r="J30" t="n">
-        <v>83.40000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="K30" t="n">
         <v>0.455</v>
@@ -5789,25 +5856,25 @@
         <v>3.7</v>
       </c>
       <c r="M30" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="N30" t="n">
-        <v>0.304</v>
+        <v>0.308</v>
       </c>
       <c r="O30" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="P30" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.752</v>
+        <v>0.751</v>
       </c>
       <c r="R30" t="n">
         <v>12.7</v>
       </c>
       <c r="S30" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T30" t="n">
         <v>43.1</v>
@@ -5819,31 +5886,31 @@
         <v>14</v>
       </c>
       <c r="W30" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X30" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y30" t="n">
         <v>5.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB30" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AE30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF30" t="n">
         <v>15</v>
@@ -5858,7 +5925,7 @@
         <v>4</v>
       </c>
       <c r="AJ30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK30" t="n">
         <v>9</v>
@@ -5867,19 +5934,19 @@
         <v>30</v>
       </c>
       <c r="AM30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN30" t="n">
         <v>29</v>
       </c>
       <c r="AO30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP30" t="n">
         <v>8</v>
       </c>
       <c r="AQ30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR30" t="n">
         <v>5</v>
@@ -5897,10 +5964,10 @@
         <v>6</v>
       </c>
       <c r="AW30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY30" t="n">
         <v>24</v>
@@ -5909,13 +5976,13 @@
         <v>29</v>
       </c>
       <c r="BA30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-22-2011-12</t>
+          <t>2012-03-22</t>
         </is>
       </c>
     </row>
@@ -5944,25 +6011,25 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E31" t="n">
         <v>11</v>
       </c>
       <c r="F31" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G31" t="n">
-        <v>0.239</v>
+        <v>0.244</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J31" t="n">
-        <v>83.09999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="K31" t="n">
         <v>0.438</v>
@@ -5971,76 +6038,76 @@
         <v>5.1</v>
       </c>
       <c r="M31" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.323</v>
+      </c>
+      <c r="O31" t="n">
         <v>15.9</v>
       </c>
-      <c r="N31" t="n">
-        <v>0.321</v>
-      </c>
-      <c r="O31" t="n">
-        <v>16</v>
-      </c>
       <c r="P31" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.721</v>
+        <v>0.72</v>
       </c>
       <c r="R31" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S31" t="n">
         <v>29.8</v>
       </c>
       <c r="T31" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="U31" t="n">
         <v>18.3</v>
       </c>
       <c r="V31" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W31" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X31" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA31" t="n">
         <v>18.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>93.8</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.4</v>
+        <v>-7.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF31" t="n">
         <v>28</v>
       </c>
       <c r="AG31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH31" t="n">
         <v>26</v>
       </c>
       <c r="AI31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK31" t="n">
         <v>22</v>
@@ -6064,22 +6131,22 @@
         <v>26</v>
       </c>
       <c r="AR31" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AS31" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AT31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AU31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV31" t="n">
         <v>24</v>
       </c>
       <c r="AW31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX31" t="n">
         <v>2</v>
@@ -6088,13 +6155,13 @@
         <v>10</v>
       </c>
       <c r="AZ31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BC31" t="n">
         <v>29</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-22-2011-12</t>
+          <t>2012-03-22</t>
         </is>
       </c>
     </row>
